--- a/Tests/ALIE_Testing.xlsx
+++ b/Tests/ALIE_Testing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ALIE_IA\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD18E3-28D0-416A-B1E8-E52F69D69C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A075C69-D576-4FB2-9411-B985F53CBE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{060A9702-5AC3-4EE2-8EB0-DCA2F22F2A4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LmStudio0.3.2" sheetId="1" r:id="rId1"/>
+    <sheet name="LmStudio0.2.27" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>ALIE</t>
   </si>
@@ -69,6 +70,12 @@
   </si>
   <si>
     <t>Efectiveness rate</t>
+  </si>
+  <si>
+    <t>ALIE (Not compatible with this version of LMStudio)</t>
+  </si>
+  <si>
+    <t>mistralai_mistral-7b-instruct-v0.1 (Se usa el modelo base para evitar problemas con las llamadas a herramientas)</t>
   </si>
 </sst>
 </file>
@@ -179,18 +186,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -524,7 +551,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,15 +574,15 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
         <v>0</v>
@@ -572,7 +599,7 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f>(D33*4)/100</f>
         <v>0.92</v>
       </c>
@@ -590,7 +617,7 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f>(1-H6)</f>
         <v>7.999999999999996E-2</v>
       </c>
@@ -602,7 +629,9 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
@@ -612,9 +641,11 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -625,13 +656,15 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f>(E33*4)/100</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -642,13 +675,15 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f>(1-H10)</f>
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -659,7 +694,9 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
@@ -669,7 +706,9 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
@@ -679,7 +718,9 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
@@ -689,7 +730,9 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
@@ -699,7 +742,9 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
@@ -709,7 +754,9 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
@@ -719,7 +766,9 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
@@ -729,7 +778,9 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
@@ -739,7 +790,9 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
@@ -749,7 +802,9 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
@@ -759,7 +814,9 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
@@ -769,7 +826,9 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
@@ -779,7 +838,9 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
@@ -789,7 +850,9 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
@@ -799,7 +862,9 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
@@ -809,7 +874,9 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
@@ -819,7 +886,9 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
@@ -829,7 +898,9 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
@@ -839,7 +910,9 @@
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="3">
@@ -849,7 +922,9 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
@@ -859,7 +934,9 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
@@ -871,7 +948,429 @@
       </c>
       <c r="E33" s="3">
         <f>SUM(E8:E32)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8:E32">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAE08C-E3DB-4B00-A24C-3536F03F4DF9}">
+  <dimension ref="C2:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
+        <f>(D33*4)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10">
+        <f>(1-H6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <f>1+C8</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:C32" si="0">1+C9</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9">
+        <f>(E33*4)/100</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10">
+        <f>(1-H10)</f>
+        <v>0.43999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D8:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <f>SUM(E8:E32)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/ALIE_Testing.xlsx
+++ b/Tests/ALIE_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ALIE_IA\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A075C69-D576-4FB2-9411-B985F53CBE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C991F08A-032A-44BB-B58A-8A20C80F7515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{060A9702-5AC3-4EE2-8EB0-DCA2F22F2A4D}"/>
+    <workbookView xWindow="4440" yWindow="4404" windowWidth="23040" windowHeight="12120" xr2:uid="{060A9702-5AC3-4EE2-8EB0-DCA2F22F2A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="LmStudio0.3.2" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>Efectiveness rate</t>
   </si>
   <si>
-    <t>ALIE (Not compatible with this version of LMStudio)</t>
+    <t>mistralai_mistral-7b-instruct-v0.1 (Se usa el modelo base para evitar problemas con las llamadas a herramientas)</t>
   </si>
   <si>
-    <t>mistralai_mistral-7b-instruct-v0.1 (Se usa el modelo base para evitar problemas con las llamadas a herramientas)</t>
+    <t>ALIE (Not compatible with this version of LMStudio - Structured output not supported)</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -551,7 +571,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,10 +976,10 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -972,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAE08C-E3DB-4B00-A24C-3536F03F4DF9}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="23.4" x14ac:dyDescent="0.3">
@@ -1007,7 +1027,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1023,7 +1043,7 @@
       </c>
       <c r="H6" s="9">
         <f>(D33*4)/100</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -1041,7 +1061,7 @@
       </c>
       <c r="H7" s="10">
         <f>(1-H6)</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -1049,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1061,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1076,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1114,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1138,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1150,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1162,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1186,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1210,7 +1230,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1222,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1234,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1258,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1270,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1294,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1306,7 +1326,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1318,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1330,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1342,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -1354,7 +1374,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1366,7 +1386,7 @@
       </c>
       <c r="D33" s="3">
         <f>SUM(D8:D32)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3">
         <f>SUM(E8:E32)</f>
@@ -1377,7 +1397,15 @@
   <mergeCells count="1">
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:E32">
+  <conditionalFormatting sqref="E8:E32">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D32">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
